--- a/src/equipLib.xlsx
+++ b/src/equipLib.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20359"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044530CB-2280-4A58-9FD3-01C7813682AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE96C8B-26BD-4B65-939F-2E7681BDFA51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -631,6 +631,74 @@
         <v>100</v>
       </c>
     </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1003</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>1004</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1004</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>1005</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1005</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>1006</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1006</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>1001</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -639,10 +707,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -650,65 +714,69 @@
 </settings>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="2" master=""/>
   <rangeList sheetStid="3" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/src/equipLib.xlsx
+++ b/src/equipLib.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE96C8B-26BD-4B65-939F-2E7681BDFA51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455FD631-DF7C-481A-AD88-8F22699AB23B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -605,13 +605,13 @@
         <v>1001</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D4">
         <v>1002</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -622,13 +622,13 @@
         <v>1002</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D5">
         <v>1003</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -639,13 +639,13 @@
         <v>1003</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D6">
         <v>1004</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -656,13 +656,13 @@
         <v>1004</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D7">
         <v>1005</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -673,13 +673,13 @@
         <v>1005</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D8">
         <v>1006</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -690,13 +690,2191 @@
         <v>1006</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D9">
         <v>1001</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1001</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>1002</v>
+      </c>
+      <c r="E10">
+        <v>500</v>
+      </c>
+      <c r="F10">
+        <v>1021</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1002</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <v>1003</v>
+      </c>
+      <c r="E11">
+        <v>500</v>
+      </c>
+      <c r="F11">
+        <v>1022</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1003</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <v>1004</v>
+      </c>
+      <c r="E12">
+        <v>500</v>
+      </c>
+      <c r="F12">
+        <v>1023</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1004</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13">
+        <v>1005</v>
+      </c>
+      <c r="E13">
+        <v>500</v>
+      </c>
+      <c r="F13">
+        <v>1024</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>1005</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14">
+        <v>1011</v>
+      </c>
+      <c r="E14">
+        <v>500</v>
+      </c>
+      <c r="F14">
+        <v>1025</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>1006</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15">
+        <v>1012</v>
+      </c>
+      <c r="E15">
+        <v>500</v>
+      </c>
+      <c r="F15">
+        <v>1026</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>1001</v>
+      </c>
+      <c r="C16">
+        <v>1000</v>
+      </c>
+      <c r="D16">
+        <v>1013</v>
+      </c>
+      <c r="E16">
+        <v>500</v>
+      </c>
+      <c r="F16">
+        <v>1031</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>1002</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="D17">
+        <v>1014</v>
+      </c>
+      <c r="E17">
+        <v>500</v>
+      </c>
+      <c r="F17">
+        <v>1032</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>1003</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="D18">
+        <v>1015</v>
+      </c>
+      <c r="E18">
+        <v>500</v>
+      </c>
+      <c r="F18">
+        <v>1033</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>1004</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+      <c r="D19">
+        <v>1016</v>
+      </c>
+      <c r="E19">
+        <v>500</v>
+      </c>
+      <c r="F19">
+        <v>1034</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>1005</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+      <c r="D20">
+        <v>1011</v>
+      </c>
+      <c r="E20">
+        <v>500</v>
+      </c>
+      <c r="F20">
+        <v>1035</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>1006</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
+      </c>
+      <c r="D21">
+        <v>1012</v>
+      </c>
+      <c r="E21">
+        <v>500</v>
+      </c>
+      <c r="F21">
+        <v>1036</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1001</v>
+      </c>
+      <c r="C22">
+        <v>1000</v>
+      </c>
+      <c r="D22">
+        <v>1013</v>
+      </c>
+      <c r="E22">
+        <v>500</v>
+      </c>
+      <c r="F22">
+        <v>1041</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>1002</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+      <c r="D23">
+        <v>1014</v>
+      </c>
+      <c r="E23">
+        <v>500</v>
+      </c>
+      <c r="F23">
+        <v>1042</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>1003</v>
+      </c>
+      <c r="C24">
+        <v>1000</v>
+      </c>
+      <c r="D24">
+        <v>1015</v>
+      </c>
+      <c r="E24">
+        <v>500</v>
+      </c>
+      <c r="F24">
+        <v>1043</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>1004</v>
+      </c>
+      <c r="C25">
+        <v>1000</v>
+      </c>
+      <c r="D25">
+        <v>1016</v>
+      </c>
+      <c r="E25">
+        <v>500</v>
+      </c>
+      <c r="F25">
+        <v>1044</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>1005</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+      <c r="D26">
+        <v>1011</v>
+      </c>
+      <c r="E26">
+        <v>500</v>
+      </c>
+      <c r="F26">
+        <v>1045</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>1006</v>
+      </c>
+      <c r="C27">
+        <v>1000</v>
+      </c>
+      <c r="D27">
+        <v>1012</v>
+      </c>
+      <c r="E27">
+        <v>500</v>
+      </c>
+      <c r="F27">
+        <v>1046</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>1001</v>
+      </c>
+      <c r="C28">
+        <v>1000</v>
+      </c>
+      <c r="D28">
+        <v>1013</v>
+      </c>
+      <c r="E28">
+        <v>500</v>
+      </c>
+      <c r="F28">
+        <v>1051</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>1002</v>
+      </c>
+      <c r="C29">
+        <v>1000</v>
+      </c>
+      <c r="D29">
+        <v>1014</v>
+      </c>
+      <c r="E29">
+        <v>500</v>
+      </c>
+      <c r="F29">
+        <v>1052</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>1003</v>
+      </c>
+      <c r="C30">
+        <v>1000</v>
+      </c>
+      <c r="D30">
+        <v>1015</v>
+      </c>
+      <c r="E30">
+        <v>500</v>
+      </c>
+      <c r="F30">
+        <v>1053</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>1004</v>
+      </c>
+      <c r="C31">
+        <v>1000</v>
+      </c>
+      <c r="D31">
+        <v>1016</v>
+      </c>
+      <c r="E31">
+        <v>500</v>
+      </c>
+      <c r="F31">
+        <v>1054</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>1005</v>
+      </c>
+      <c r="C32">
+        <v>1000</v>
+      </c>
+      <c r="D32">
+        <v>1011</v>
+      </c>
+      <c r="E32">
+        <v>500</v>
+      </c>
+      <c r="F32">
+        <v>1055</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>1006</v>
+      </c>
+      <c r="C33">
+        <v>1000</v>
+      </c>
+      <c r="D33">
+        <v>1012</v>
+      </c>
+      <c r="E33">
+        <v>500</v>
+      </c>
+      <c r="F33">
+        <v>1056</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>1001</v>
+      </c>
+      <c r="C34">
+        <v>1000</v>
+      </c>
+      <c r="D34">
+        <v>1013</v>
+      </c>
+      <c r="E34">
+        <v>500</v>
+      </c>
+      <c r="F34">
+        <v>1021</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>1002</v>
+      </c>
+      <c r="C35">
+        <v>1000</v>
+      </c>
+      <c r="D35">
+        <v>1014</v>
+      </c>
+      <c r="E35">
+        <v>500</v>
+      </c>
+      <c r="F35">
+        <v>1022</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>1003</v>
+      </c>
+      <c r="C36">
+        <v>1000</v>
+      </c>
+      <c r="D36">
+        <v>1015</v>
+      </c>
+      <c r="E36">
+        <v>500</v>
+      </c>
+      <c r="F36">
+        <v>1023</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>1004</v>
+      </c>
+      <c r="C37">
+        <v>1000</v>
+      </c>
+      <c r="D37">
+        <v>1016</v>
+      </c>
+      <c r="E37">
+        <v>500</v>
+      </c>
+      <c r="F37">
+        <v>1024</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>1005</v>
+      </c>
+      <c r="C38">
+        <v>1000</v>
+      </c>
+      <c r="D38">
+        <v>1011</v>
+      </c>
+      <c r="E38">
+        <v>500</v>
+      </c>
+      <c r="F38">
+        <v>1025</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>1006</v>
+      </c>
+      <c r="C39">
+        <v>1000</v>
+      </c>
+      <c r="D39">
+        <v>1012</v>
+      </c>
+      <c r="E39">
+        <v>500</v>
+      </c>
+      <c r="F39">
+        <v>1026</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>1001</v>
+      </c>
+      <c r="C40">
+        <v>1000</v>
+      </c>
+      <c r="D40">
+        <v>1013</v>
+      </c>
+      <c r="E40">
+        <v>500</v>
+      </c>
+      <c r="F40">
+        <v>1031</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>1002</v>
+      </c>
+      <c r="C41">
+        <v>1000</v>
+      </c>
+      <c r="D41">
+        <v>1014</v>
+      </c>
+      <c r="E41">
+        <v>500</v>
+      </c>
+      <c r="F41">
+        <v>1032</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>1003</v>
+      </c>
+      <c r="C42">
+        <v>1000</v>
+      </c>
+      <c r="D42">
+        <v>1015</v>
+      </c>
+      <c r="E42">
+        <v>500</v>
+      </c>
+      <c r="F42">
+        <v>1033</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>1004</v>
+      </c>
+      <c r="C43">
+        <v>1000</v>
+      </c>
+      <c r="D43">
+        <v>1016</v>
+      </c>
+      <c r="E43">
+        <v>500</v>
+      </c>
+      <c r="F43">
+        <v>1034</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>1005</v>
+      </c>
+      <c r="C44">
+        <v>1000</v>
+      </c>
+      <c r="D44">
+        <v>1011</v>
+      </c>
+      <c r="E44">
+        <v>500</v>
+      </c>
+      <c r="F44">
+        <v>1035</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>1006</v>
+      </c>
+      <c r="C45">
+        <v>1000</v>
+      </c>
+      <c r="D45">
+        <v>1012</v>
+      </c>
+      <c r="E45">
+        <v>500</v>
+      </c>
+      <c r="F45">
+        <v>1036</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>1001</v>
+      </c>
+      <c r="C46">
+        <v>1000</v>
+      </c>
+      <c r="D46">
+        <v>1013</v>
+      </c>
+      <c r="E46">
+        <v>500</v>
+      </c>
+      <c r="F46">
+        <v>1041</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>1002</v>
+      </c>
+      <c r="C47">
+        <v>1000</v>
+      </c>
+      <c r="D47">
+        <v>1014</v>
+      </c>
+      <c r="E47">
+        <v>500</v>
+      </c>
+      <c r="F47">
+        <v>1042</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>1003</v>
+      </c>
+      <c r="C48">
+        <v>1000</v>
+      </c>
+      <c r="D48">
+        <v>1015</v>
+      </c>
+      <c r="E48">
+        <v>500</v>
+      </c>
+      <c r="F48">
+        <v>1043</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>1004</v>
+      </c>
+      <c r="C49">
+        <v>1000</v>
+      </c>
+      <c r="D49">
+        <v>1016</v>
+      </c>
+      <c r="E49">
+        <v>500</v>
+      </c>
+      <c r="F49">
+        <v>1044</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>1005</v>
+      </c>
+      <c r="C50">
+        <v>1000</v>
+      </c>
+      <c r="D50">
+        <v>1011</v>
+      </c>
+      <c r="E50">
+        <v>500</v>
+      </c>
+      <c r="F50">
+        <v>1045</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>1006</v>
+      </c>
+      <c r="C51">
+        <v>1000</v>
+      </c>
+      <c r="D51">
+        <v>1012</v>
+      </c>
+      <c r="E51">
+        <v>500</v>
+      </c>
+      <c r="F51">
+        <v>1046</v>
+      </c>
+      <c r="G51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>1001</v>
+      </c>
+      <c r="C52">
+        <v>1000</v>
+      </c>
+      <c r="D52">
+        <v>1013</v>
+      </c>
+      <c r="E52">
+        <v>500</v>
+      </c>
+      <c r="F52">
+        <v>1051</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>1002</v>
+      </c>
+      <c r="C53">
+        <v>1000</v>
+      </c>
+      <c r="D53">
+        <v>1014</v>
+      </c>
+      <c r="E53">
+        <v>500</v>
+      </c>
+      <c r="F53">
+        <v>1052</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>1003</v>
+      </c>
+      <c r="C54">
+        <v>1000</v>
+      </c>
+      <c r="D54">
+        <v>1015</v>
+      </c>
+      <c r="E54">
+        <v>500</v>
+      </c>
+      <c r="F54">
+        <v>1053</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55">
+        <v>1004</v>
+      </c>
+      <c r="C55">
+        <v>1000</v>
+      </c>
+      <c r="D55">
+        <v>1016</v>
+      </c>
+      <c r="E55">
+        <v>500</v>
+      </c>
+      <c r="F55">
+        <v>1054</v>
+      </c>
+      <c r="G55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>1005</v>
+      </c>
+      <c r="C56">
+        <v>1000</v>
+      </c>
+      <c r="D56">
+        <v>1011</v>
+      </c>
+      <c r="E56">
+        <v>500</v>
+      </c>
+      <c r="F56">
+        <v>1055</v>
+      </c>
+      <c r="G56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>1006</v>
+      </c>
+      <c r="C57">
+        <v>1000</v>
+      </c>
+      <c r="D57">
+        <v>1012</v>
+      </c>
+      <c r="E57">
+        <v>500</v>
+      </c>
+      <c r="F57">
+        <v>1056</v>
+      </c>
+      <c r="G57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>1001</v>
+      </c>
+      <c r="C58">
+        <v>1000</v>
+      </c>
+      <c r="D58">
+        <v>1013</v>
+      </c>
+      <c r="E58">
+        <v>500</v>
+      </c>
+      <c r="F58">
+        <v>1061</v>
+      </c>
+      <c r="G58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>1002</v>
+      </c>
+      <c r="C59">
+        <v>1000</v>
+      </c>
+      <c r="D59">
+        <v>1014</v>
+      </c>
+      <c r="E59">
+        <v>500</v>
+      </c>
+      <c r="F59">
+        <v>1062</v>
+      </c>
+      <c r="G59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>1003</v>
+      </c>
+      <c r="C60">
+        <v>1000</v>
+      </c>
+      <c r="D60">
+        <v>1015</v>
+      </c>
+      <c r="E60">
+        <v>500</v>
+      </c>
+      <c r="F60">
+        <v>1063</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>1004</v>
+      </c>
+      <c r="C61">
+        <v>1000</v>
+      </c>
+      <c r="D61">
+        <v>1016</v>
+      </c>
+      <c r="E61">
+        <v>500</v>
+      </c>
+      <c r="F61">
+        <v>1064</v>
+      </c>
+      <c r="G61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>1005</v>
+      </c>
+      <c r="C62">
+        <v>1000</v>
+      </c>
+      <c r="D62">
+        <v>1011</v>
+      </c>
+      <c r="E62">
+        <v>500</v>
+      </c>
+      <c r="F62">
+        <v>1065</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>1006</v>
+      </c>
+      <c r="C63">
+        <v>1000</v>
+      </c>
+      <c r="D63">
+        <v>1012</v>
+      </c>
+      <c r="E63">
+        <v>500</v>
+      </c>
+      <c r="F63">
+        <v>1066</v>
+      </c>
+      <c r="G63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <v>1001</v>
+      </c>
+      <c r="C64">
+        <v>1000</v>
+      </c>
+      <c r="D64">
+        <v>1013</v>
+      </c>
+      <c r="E64">
+        <v>500</v>
+      </c>
+      <c r="F64">
+        <v>1071</v>
+      </c>
+      <c r="G64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65">
+        <v>1002</v>
+      </c>
+      <c r="C65">
+        <v>1000</v>
+      </c>
+      <c r="D65">
+        <v>1014</v>
+      </c>
+      <c r="E65">
+        <v>500</v>
+      </c>
+      <c r="F65">
+        <v>1072</v>
+      </c>
+      <c r="G65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66">
+        <v>1003</v>
+      </c>
+      <c r="C66">
+        <v>1000</v>
+      </c>
+      <c r="D66">
+        <v>1015</v>
+      </c>
+      <c r="E66">
+        <v>500</v>
+      </c>
+      <c r="F66">
+        <v>1073</v>
+      </c>
+      <c r="G66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67">
+        <v>1004</v>
+      </c>
+      <c r="C67">
+        <v>1000</v>
+      </c>
+      <c r="D67">
+        <v>1016</v>
+      </c>
+      <c r="E67">
+        <v>500</v>
+      </c>
+      <c r="F67">
+        <v>1074</v>
+      </c>
+      <c r="G67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68">
+        <v>1005</v>
+      </c>
+      <c r="C68">
+        <v>1000</v>
+      </c>
+      <c r="D68">
+        <v>1011</v>
+      </c>
+      <c r="E68">
+        <v>500</v>
+      </c>
+      <c r="F68">
+        <v>1075</v>
+      </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69">
+        <v>1006</v>
+      </c>
+      <c r="C69">
+        <v>1000</v>
+      </c>
+      <c r="D69">
+        <v>1012</v>
+      </c>
+      <c r="E69">
+        <v>500</v>
+      </c>
+      <c r="F69">
+        <v>1076</v>
+      </c>
+      <c r="G69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <v>1001</v>
+      </c>
+      <c r="C70">
+        <v>1000</v>
+      </c>
+      <c r="D70">
+        <v>1013</v>
+      </c>
+      <c r="E70">
+        <v>500</v>
+      </c>
+      <c r="F70">
+        <v>1081</v>
+      </c>
+      <c r="G70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71">
+        <v>1002</v>
+      </c>
+      <c r="C71">
+        <v>1000</v>
+      </c>
+      <c r="D71">
+        <v>1014</v>
+      </c>
+      <c r="E71">
+        <v>500</v>
+      </c>
+      <c r="F71">
+        <v>1082</v>
+      </c>
+      <c r="G71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72">
+        <v>1003</v>
+      </c>
+      <c r="C72">
+        <v>1000</v>
+      </c>
+      <c r="D72">
+        <v>1015</v>
+      </c>
+      <c r="E72">
+        <v>500</v>
+      </c>
+      <c r="F72">
+        <v>1083</v>
+      </c>
+      <c r="G72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73">
+        <v>1004</v>
+      </c>
+      <c r="C73">
+        <v>1000</v>
+      </c>
+      <c r="D73">
+        <v>1016</v>
+      </c>
+      <c r="E73">
+        <v>500</v>
+      </c>
+      <c r="F73">
+        <v>1084</v>
+      </c>
+      <c r="G73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <v>1005</v>
+      </c>
+      <c r="C74">
+        <v>1000</v>
+      </c>
+      <c r="D74">
+        <v>1011</v>
+      </c>
+      <c r="E74">
+        <v>500</v>
+      </c>
+      <c r="F74">
+        <v>1085</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <v>1006</v>
+      </c>
+      <c r="C75">
+        <v>1000</v>
+      </c>
+      <c r="D75">
+        <v>1012</v>
+      </c>
+      <c r="E75">
+        <v>500</v>
+      </c>
+      <c r="F75">
+        <v>1086</v>
+      </c>
+      <c r="G75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76">
+        <v>1001</v>
+      </c>
+      <c r="C76">
+        <v>1000</v>
+      </c>
+      <c r="D76">
+        <v>1013</v>
+      </c>
+      <c r="E76">
+        <v>500</v>
+      </c>
+      <c r="F76">
+        <v>1061</v>
+      </c>
+      <c r="G76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>1002</v>
+      </c>
+      <c r="C77">
+        <v>1000</v>
+      </c>
+      <c r="D77">
+        <v>1014</v>
+      </c>
+      <c r="E77">
+        <v>500</v>
+      </c>
+      <c r="F77">
+        <v>1062</v>
+      </c>
+      <c r="G77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78">
+        <v>1003</v>
+      </c>
+      <c r="C78">
+        <v>1000</v>
+      </c>
+      <c r="D78">
+        <v>1015</v>
+      </c>
+      <c r="E78">
+        <v>500</v>
+      </c>
+      <c r="F78">
+        <v>1063</v>
+      </c>
+      <c r="G78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79">
+        <v>1004</v>
+      </c>
+      <c r="C79">
+        <v>1000</v>
+      </c>
+      <c r="D79">
+        <v>1016</v>
+      </c>
+      <c r="E79">
+        <v>500</v>
+      </c>
+      <c r="F79">
+        <v>1064</v>
+      </c>
+      <c r="G79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80">
+        <v>1005</v>
+      </c>
+      <c r="C80">
+        <v>1000</v>
+      </c>
+      <c r="D80">
+        <v>1011</v>
+      </c>
+      <c r="E80">
+        <v>500</v>
+      </c>
+      <c r="F80">
+        <v>1065</v>
+      </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81">
+        <v>1006</v>
+      </c>
+      <c r="C81">
+        <v>1000</v>
+      </c>
+      <c r="D81">
+        <v>1012</v>
+      </c>
+      <c r="E81">
+        <v>500</v>
+      </c>
+      <c r="F81">
+        <v>1066</v>
+      </c>
+      <c r="G81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>1001</v>
+      </c>
+      <c r="C82">
+        <v>1000</v>
+      </c>
+      <c r="D82">
+        <v>1013</v>
+      </c>
+      <c r="E82">
+        <v>500</v>
+      </c>
+      <c r="F82">
+        <v>1071</v>
+      </c>
+      <c r="G82">
+        <v>100</v>
+      </c>
+      <c r="H82">
+        <v>1091</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <v>1002</v>
+      </c>
+      <c r="C83">
+        <v>1000</v>
+      </c>
+      <c r="D83">
+        <v>1014</v>
+      </c>
+      <c r="E83">
+        <v>500</v>
+      </c>
+      <c r="F83">
+        <v>1072</v>
+      </c>
+      <c r="G83">
+        <v>100</v>
+      </c>
+      <c r="H83">
+        <v>1092</v>
+      </c>
+      <c r="I83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84">
+        <v>1003</v>
+      </c>
+      <c r="C84">
+        <v>1000</v>
+      </c>
+      <c r="D84">
+        <v>1015</v>
+      </c>
+      <c r="E84">
+        <v>500</v>
+      </c>
+      <c r="F84">
+        <v>1073</v>
+      </c>
+      <c r="G84">
+        <v>100</v>
+      </c>
+      <c r="H84">
+        <v>1093</v>
+      </c>
+      <c r="I84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85">
+        <v>1004</v>
+      </c>
+      <c r="C85">
+        <v>1000</v>
+      </c>
+      <c r="D85">
+        <v>1016</v>
+      </c>
+      <c r="E85">
+        <v>500</v>
+      </c>
+      <c r="F85">
+        <v>1074</v>
+      </c>
+      <c r="G85">
+        <v>100</v>
+      </c>
+      <c r="H85">
+        <v>1094</v>
+      </c>
+      <c r="I85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86">
+        <v>1005</v>
+      </c>
+      <c r="C86">
+        <v>1000</v>
+      </c>
+      <c r="D86">
+        <v>1011</v>
+      </c>
+      <c r="E86">
+        <v>500</v>
+      </c>
+      <c r="F86">
+        <v>1075</v>
+      </c>
+      <c r="G86">
+        <v>100</v>
+      </c>
+      <c r="H86">
+        <v>1095</v>
+      </c>
+      <c r="I86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87">
+        <v>1006</v>
+      </c>
+      <c r="C87">
+        <v>1000</v>
+      </c>
+      <c r="D87">
+        <v>1012</v>
+      </c>
+      <c r="E87">
+        <v>500</v>
+      </c>
+      <c r="F87">
+        <v>1076</v>
+      </c>
+      <c r="G87">
+        <v>100</v>
+      </c>
+      <c r="H87">
+        <v>1096</v>
+      </c>
+      <c r="I87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88">
+        <v>1001</v>
+      </c>
+      <c r="C88">
+        <v>1000</v>
+      </c>
+      <c r="D88">
+        <v>1013</v>
+      </c>
+      <c r="E88">
+        <v>500</v>
+      </c>
+      <c r="F88">
+        <v>1081</v>
+      </c>
+      <c r="G88">
+        <v>100</v>
+      </c>
+      <c r="H88">
+        <v>1101</v>
+      </c>
+      <c r="I88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89">
+        <v>1002</v>
+      </c>
+      <c r="C89">
+        <v>1000</v>
+      </c>
+      <c r="D89">
+        <v>1014</v>
+      </c>
+      <c r="E89">
+        <v>500</v>
+      </c>
+      <c r="F89">
+        <v>1082</v>
+      </c>
+      <c r="G89">
+        <v>100</v>
+      </c>
+      <c r="H89">
+        <v>1102</v>
+      </c>
+      <c r="I89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90">
+        <v>1003</v>
+      </c>
+      <c r="C90">
+        <v>1000</v>
+      </c>
+      <c r="D90">
+        <v>1015</v>
+      </c>
+      <c r="E90">
+        <v>500</v>
+      </c>
+      <c r="F90">
+        <v>1083</v>
+      </c>
+      <c r="G90">
+        <v>100</v>
+      </c>
+      <c r="H90">
+        <v>1103</v>
+      </c>
+      <c r="I90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91">
+        <v>1004</v>
+      </c>
+      <c r="C91">
+        <v>1000</v>
+      </c>
+      <c r="D91">
+        <v>1016</v>
+      </c>
+      <c r="E91">
+        <v>500</v>
+      </c>
+      <c r="F91">
+        <v>1084</v>
+      </c>
+      <c r="G91">
+        <v>100</v>
+      </c>
+      <c r="H91">
+        <v>1104</v>
+      </c>
+      <c r="I91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92">
+        <v>1005</v>
+      </c>
+      <c r="C92">
+        <v>1000</v>
+      </c>
+      <c r="D92">
+        <v>1011</v>
+      </c>
+      <c r="E92">
+        <v>500</v>
+      </c>
+      <c r="F92">
+        <v>1085</v>
+      </c>
+      <c r="G92">
+        <v>100</v>
+      </c>
+      <c r="H92">
+        <v>1105</v>
+      </c>
+      <c r="I92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>1006</v>
+      </c>
+      <c r="C93">
+        <v>1000</v>
+      </c>
+      <c r="D93">
+        <v>1012</v>
+      </c>
+      <c r="E93">
+        <v>500</v>
+      </c>
+      <c r="F93">
+        <v>1086</v>
+      </c>
+      <c r="G93">
+        <v>100</v>
+      </c>
+      <c r="H93">
+        <v>1106</v>
+      </c>
+      <c r="I93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94">
+        <v>1001</v>
+      </c>
+      <c r="C94">
+        <v>1000</v>
+      </c>
+      <c r="D94">
+        <v>1013</v>
+      </c>
+      <c r="E94">
+        <v>500</v>
+      </c>
+      <c r="F94">
+        <v>1081</v>
+      </c>
+      <c r="G94">
+        <v>100</v>
+      </c>
+      <c r="H94">
+        <v>1111</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95">
+        <v>1002</v>
+      </c>
+      <c r="C95">
+        <v>1000</v>
+      </c>
+      <c r="D95">
+        <v>1014</v>
+      </c>
+      <c r="E95">
+        <v>500</v>
+      </c>
+      <c r="F95">
+        <v>1082</v>
+      </c>
+      <c r="G95">
+        <v>100</v>
+      </c>
+      <c r="H95">
+        <v>1112</v>
+      </c>
+      <c r="I95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96">
+        <v>1003</v>
+      </c>
+      <c r="C96">
+        <v>1000</v>
+      </c>
+      <c r="D96">
+        <v>1015</v>
+      </c>
+      <c r="E96">
+        <v>500</v>
+      </c>
+      <c r="F96">
+        <v>1083</v>
+      </c>
+      <c r="G96">
+        <v>100</v>
+      </c>
+      <c r="H96">
+        <v>1113</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97">
+        <v>1004</v>
+      </c>
+      <c r="C97">
+        <v>1000</v>
+      </c>
+      <c r="D97">
+        <v>1016</v>
+      </c>
+      <c r="E97">
+        <v>500</v>
+      </c>
+      <c r="F97">
+        <v>1084</v>
+      </c>
+      <c r="G97">
+        <v>100</v>
+      </c>
+      <c r="H97">
+        <v>1114</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98">
+        <v>1005</v>
+      </c>
+      <c r="C98">
+        <v>1000</v>
+      </c>
+      <c r="D98">
+        <v>1011</v>
+      </c>
+      <c r="E98">
+        <v>500</v>
+      </c>
+      <c r="F98">
+        <v>1085</v>
+      </c>
+      <c r="G98">
+        <v>100</v>
+      </c>
+      <c r="H98">
+        <v>1115</v>
+      </c>
+      <c r="I98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99">
+        <v>1006</v>
+      </c>
+      <c r="C99">
+        <v>1000</v>
+      </c>
+      <c r="D99">
+        <v>1012</v>
+      </c>
+      <c r="E99">
+        <v>500</v>
+      </c>
+      <c r="F99">
+        <v>1086</v>
+      </c>
+      <c r="G99">
+        <v>100</v>
+      </c>
+      <c r="H99">
+        <v>1116</v>
+      </c>
+      <c r="I99">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -707,6 +2885,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -714,69 +2896,65 @@
 </settings>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
 </sheetInterline>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>